--- a/test/performance.xlsx
+++ b/test/performance.xlsx
@@ -8,24 +8,31 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\4-study\FDU\suffermore\DataStructure\HuffmanCompress\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD4BDBDD-913E-4958-8F90-9EFEFF93FFFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26408EDF-FCDB-4DD0-8880-2FE8A3DBA674}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-109" yWindow="351" windowWidth="23452" windowHeight="12827" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14376" yWindow="2711" windowWidth="17425" windowHeight="8555" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="42">
   <si>
     <t>test case</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -129,6 +136,46 @@
   </si>
   <si>
     <t>1.35</t>
+  </si>
+  <si>
+    <t>Other tool (7zip) size/bytes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.empty_folder</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.empty_file</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>inf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -171,12 +218,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -459,24 +509,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G36"/>
+  <dimension ref="A1:K44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="E20" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="G39" sqref="G39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.95" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10" style="2" customWidth="1"/>
+    <col min="1" max="1" width="14.6640625" style="2" customWidth="1"/>
     <col min="2" max="2" width="21.77734375" style="1" customWidth="1"/>
     <col min="3" max="3" width="23.77734375" style="1" customWidth="1"/>
     <col min="4" max="4" width="19.33203125" style="1" customWidth="1"/>
     <col min="5" max="5" width="16.5546875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="24.21875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="8.88671875" style="1"/>
+    <col min="6" max="6" width="30.5546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="24.21875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -493,287 +547,999 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1.1000000000000001</v>
       </c>
+      <c r="B2" s="1">
+        <v>471.76</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1143394</v>
+      </c>
       <c r="D2" s="1">
         <v>2018251</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E2" s="3">
+        <v>0.5665</v>
+      </c>
+      <c r="F2" s="1">
+        <v>575612</v>
+      </c>
+      <c r="G2" s="1">
+        <v>544.89</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>1.2</v>
       </c>
+      <c r="B3" s="1">
+        <v>23.244199999999999</v>
+      </c>
+      <c r="C3" s="1">
+        <v>15747</v>
+      </c>
       <c r="D3" s="1">
-        <v>11776</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+        <v>34506</v>
+      </c>
+      <c r="E3" s="3">
+        <v>0.45639999999999997</v>
+      </c>
+      <c r="F3" s="1">
+        <v>6821</v>
+      </c>
+      <c r="G3" s="1">
+        <v>12.3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>1.3</v>
       </c>
+      <c r="B4" s="1">
+        <v>34.764200000000002</v>
+      </c>
+      <c r="C4" s="1">
+        <v>10359</v>
+      </c>
       <c r="D4" s="1">
-        <v>7443</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+        <v>10339</v>
+      </c>
+      <c r="E4" s="3">
+        <v>1.0019</v>
+      </c>
+      <c r="F4" s="1">
+        <v>10323</v>
+      </c>
+      <c r="G4" s="1">
+        <v>16.941299999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>1.4</v>
       </c>
+      <c r="B5" s="1">
+        <v>19.229600000000001</v>
+      </c>
+      <c r="C5" s="1">
+        <v>160</v>
+      </c>
       <c r="D5" s="1">
-        <v>2941</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+        <v>143</v>
+      </c>
+      <c r="E5" s="3">
+        <v>1.1189</v>
+      </c>
+      <c r="F5" s="1">
+        <v>261</v>
+      </c>
+      <c r="G5" s="1">
+        <v>2.3673999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>1.5</v>
       </c>
+      <c r="B6" s="1">
+        <v>22.413</v>
+      </c>
+      <c r="C6" s="1">
+        <v>46447</v>
+      </c>
       <c r="D6" s="1">
-        <v>21331</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+        <v>97229</v>
+      </c>
+      <c r="E6" s="3">
+        <v>0.47770000000000001</v>
+      </c>
+      <c r="F6" s="1">
+        <v>21873</v>
+      </c>
+      <c r="G6" s="1">
+        <v>16.009</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>1.6</v>
       </c>
+      <c r="B7" s="1">
+        <v>31.1859</v>
+      </c>
+      <c r="C7" s="1">
+        <v>126385</v>
+      </c>
       <c r="D7" s="1">
-        <v>1286</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+        <v>215924</v>
+      </c>
+      <c r="E7" s="3">
+        <v>0.58530000000000004</v>
+      </c>
+      <c r="F7" s="1">
+        <v>42846</v>
+      </c>
+      <c r="G7" s="1">
+        <v>59.357999999999997</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>1.7</v>
       </c>
+      <c r="B8" s="1">
+        <v>27.142299999999999</v>
+      </c>
+      <c r="C8" s="1">
+        <v>105518</v>
+      </c>
       <c r="D8" s="1">
-        <v>105659</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+        <v>130002</v>
+      </c>
+      <c r="E8" s="3">
+        <v>0.81169999999999998</v>
+      </c>
+      <c r="F8" s="1">
+        <v>91014</v>
+      </c>
+      <c r="G8" s="1">
+        <v>41.292099999999998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>1.8</v>
       </c>
+      <c r="B9" s="1">
+        <v>24.6587</v>
+      </c>
+      <c r="C9" s="1">
+        <v>12916</v>
+      </c>
       <c r="D9" s="1">
-        <v>4987</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+        <v>18327</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0.70479999999999998</v>
+      </c>
+      <c r="F9" s="1">
+        <v>6535</v>
+      </c>
+      <c r="G9" s="1">
+        <v>20.072399999999998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>1.9</v>
       </c>
+      <c r="B10" s="1">
+        <v>662.51900000000001</v>
+      </c>
+      <c r="C10" s="1">
+        <v>358429</v>
+      </c>
       <c r="D10" s="1">
-        <v>16302</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+        <v>513438</v>
+      </c>
+      <c r="E10" s="3">
+        <v>0.69810000000000005</v>
+      </c>
+      <c r="F10" s="1">
+        <v>43637</v>
+      </c>
+      <c r="G10" s="1">
+        <v>468.50799999999998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="B11" s="1">
+        <v>19.8233</v>
+      </c>
+      <c r="C11" s="1">
+        <v>11797</v>
+      </c>
       <c r="D11" s="1">
-        <v>2263</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+        <v>11776</v>
+      </c>
+      <c r="E11" s="3">
+        <v>1.0018</v>
+      </c>
+      <c r="F11" s="1">
+        <v>7682</v>
+      </c>
+      <c r="G11" s="1">
+        <v>17.846399999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="B12" s="1">
+        <v>22.663900000000002</v>
+      </c>
+      <c r="C12" s="1">
+        <v>7463</v>
+      </c>
       <c r="D12" s="1">
-        <v>222256</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+        <v>7443</v>
+      </c>
+      <c r="E12" s="3">
+        <v>1.0026999999999999</v>
+      </c>
+      <c r="F12" s="1">
+        <v>4240</v>
+      </c>
+      <c r="G12" s="1">
+        <v>11.663399999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>8</v>
       </c>
+      <c r="B13" s="1">
+        <v>19.4498</v>
+      </c>
+      <c r="C13" s="1">
+        <v>2961</v>
+      </c>
       <c r="D13" s="1">
-        <v>34506</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+        <v>2941</v>
+      </c>
+      <c r="E13" s="3">
+        <v>1.0067999999999999</v>
+      </c>
+      <c r="F13" s="1">
+        <v>2795</v>
+      </c>
+      <c r="G13" s="1">
+        <v>17.9651</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="B14" s="1">
+        <v>21.092600000000001</v>
+      </c>
+      <c r="C14" s="1">
+        <v>21352</v>
+      </c>
       <c r="D14" s="1">
-        <v>1687192</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+        <v>21331</v>
+      </c>
+      <c r="E14" s="3">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="F14" s="1">
+        <v>21457</v>
+      </c>
+      <c r="G14" s="1">
+        <v>59.264299999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>10</v>
       </c>
+      <c r="B15" s="1">
+        <v>17.5884</v>
+      </c>
+      <c r="C15" s="1">
+        <v>1306</v>
+      </c>
       <c r="D15" s="1">
-        <v>111118</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1286</v>
+      </c>
+      <c r="E15" s="3">
+        <v>1.0156000000000001</v>
+      </c>
+      <c r="F15" s="1">
+        <v>1232</v>
+      </c>
+      <c r="G15" s="1">
+        <v>1.6226</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>11</v>
       </c>
+      <c r="B16" s="1">
+        <v>39.738100000000003</v>
+      </c>
+      <c r="C16" s="1">
+        <v>63706</v>
+      </c>
       <c r="D16" s="1">
-        <v>1367604</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+        <v>105659</v>
+      </c>
+      <c r="E16" s="3">
+        <v>0.60289999999999999</v>
+      </c>
+      <c r="F16" s="1">
+        <v>36903</v>
+      </c>
+      <c r="G16" s="1">
+        <v>35.514400000000002</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="B17" s="1">
+        <v>19.526299999999999</v>
+      </c>
+      <c r="C17" s="1">
+        <v>4131</v>
+      </c>
       <c r="D17" s="1">
-        <v>530880</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+        <v>4987</v>
+      </c>
+      <c r="E17" s="3">
+        <v>0.82840000000000003</v>
+      </c>
+      <c r="F17" s="1">
+        <v>1480</v>
+      </c>
+      <c r="G17" s="1">
+        <v>3.4903</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>13</v>
       </c>
+      <c r="B18" s="1">
+        <v>20.4971</v>
+      </c>
+      <c r="C18" s="1">
+        <v>16323</v>
+      </c>
       <c r="D18" s="1">
-        <v>18777</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+        <v>16302</v>
+      </c>
+      <c r="E18" s="3">
+        <v>1.0013000000000001</v>
+      </c>
+      <c r="F18" s="1">
+        <v>1025</v>
+      </c>
+      <c r="G18" s="1">
+        <v>14.663600000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>14</v>
       </c>
+      <c r="B19" s="1">
+        <v>5.3231000000000002</v>
+      </c>
+      <c r="C19" s="1">
+        <v>1196</v>
+      </c>
       <c r="D19" s="1">
-        <v>22358</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+        <v>2263</v>
+      </c>
+      <c r="E19" s="3">
+        <v>0.52849999999999997</v>
+      </c>
+      <c r="F19" s="1">
+        <v>384</v>
+      </c>
+      <c r="G19" s="1">
+        <v>2.1821000000000002</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>15</v>
       </c>
+      <c r="B20" s="1">
+        <v>31.615500000000001</v>
+      </c>
+      <c r="C20" s="1">
+        <v>145699</v>
+      </c>
       <c r="D20" s="1">
-        <v>9593</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+        <v>222256</v>
+      </c>
+      <c r="E20" s="3">
+        <v>0.65549999999999997</v>
+      </c>
+      <c r="F20" s="1">
+        <v>22765</v>
+      </c>
+      <c r="G20" s="1">
+        <v>20.893799999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>16</v>
       </c>
+      <c r="B21" s="1">
+        <v>539.947</v>
+      </c>
+      <c r="C21" s="1">
+        <v>1601049</v>
+      </c>
       <c r="D21" s="1">
-        <v>1342080</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1687192</v>
+      </c>
+      <c r="E21" s="3">
+        <v>0.94889999999999997</v>
+      </c>
+      <c r="F21" s="1">
+        <v>1227081</v>
+      </c>
+      <c r="G21" s="1">
+        <v>497.26499999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="B22" s="1">
+        <v>26.782499999999999</v>
+      </c>
+      <c r="C22" s="1">
+        <v>111141</v>
+      </c>
       <c r="D22" s="1">
-        <v>27580</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+        <v>111118</v>
+      </c>
+      <c r="E22" s="3">
+        <v>1.0002</v>
+      </c>
+      <c r="F22" s="1">
+        <v>96416</v>
+      </c>
+      <c r="G22" s="1">
+        <v>14.722</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>18</v>
       </c>
+      <c r="B23" s="1">
+        <v>442.42200000000003</v>
+      </c>
+      <c r="C23" s="1">
+        <v>560985</v>
+      </c>
       <c r="D23" s="1">
-        <v>4732</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1367604</v>
+      </c>
+      <c r="E23" s="3">
+        <v>0.41020000000000001</v>
+      </c>
+      <c r="F23" s="1">
+        <v>171073</v>
+      </c>
+      <c r="G23" s="1">
+        <v>661.25800000000004</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>19</v>
       </c>
+      <c r="B24" s="1">
+        <v>3626.78</v>
+      </c>
+      <c r="C24" s="1">
+        <v>499367</v>
+      </c>
       <c r="D24" s="1">
-        <v>10339</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+        <v>530880</v>
+      </c>
+      <c r="E24" s="3">
+        <v>0.94059999999999999</v>
+      </c>
+      <c r="F24" s="1">
+        <v>328634</v>
+      </c>
+      <c r="G24" s="1">
+        <v>579.81700000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>20</v>
       </c>
+      <c r="B25" s="1">
+        <v>25.125800000000002</v>
+      </c>
+      <c r="C25" s="1">
+        <v>12426</v>
+      </c>
       <c r="D25" s="1">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+        <v>18777</v>
+      </c>
+      <c r="E25" s="3">
+        <v>0.66180000000000005</v>
+      </c>
+      <c r="F25" s="1">
+        <v>2748</v>
+      </c>
+      <c r="G25" s="1">
+        <v>76.617099999999994</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>21</v>
       </c>
+      <c r="B26" s="1">
+        <v>43.460799999999999</v>
+      </c>
+      <c r="C26" s="1">
+        <v>17288</v>
+      </c>
       <c r="D26" s="1">
-        <v>44654</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+        <v>22358</v>
+      </c>
+      <c r="E26" s="3">
+        <v>0.7732</v>
+      </c>
+      <c r="F26" s="1">
+        <v>9238</v>
+      </c>
+      <c r="G26" s="1">
+        <v>12.448</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>22</v>
       </c>
+      <c r="B27" s="1">
+        <v>22.5273</v>
+      </c>
+      <c r="C27" s="1">
+        <v>8819</v>
+      </c>
       <c r="D27" s="1">
-        <v>178426</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+        <v>9593</v>
+      </c>
+      <c r="E27" s="3">
+        <v>0.91930000000000001</v>
+      </c>
+      <c r="F27" s="1">
+        <v>7337</v>
+      </c>
+      <c r="G27" s="1">
+        <v>11.9657</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>23</v>
       </c>
+      <c r="B28" s="1">
+        <v>536.42999999999995</v>
+      </c>
+      <c r="C28" s="1">
+        <v>1333402</v>
+      </c>
       <c r="D28" s="1">
-        <v>389048</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1342080</v>
+      </c>
+      <c r="E28" s="3">
+        <v>0.99350000000000005</v>
+      </c>
+      <c r="F28" s="1">
+        <v>1306877</v>
+      </c>
+      <c r="G28" s="1">
+        <v>418.5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>24</v>
       </c>
+      <c r="B29" s="1">
+        <v>21.635300000000001</v>
+      </c>
+      <c r="C29" s="1">
+        <v>27600</v>
+      </c>
       <c r="D29" s="1">
-        <v>9537</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+        <v>27580</v>
+      </c>
+      <c r="E29" s="3">
+        <v>1.0006999999999999</v>
+      </c>
+      <c r="F29" s="1">
+        <v>27414</v>
+      </c>
+      <c r="G29" s="1">
+        <v>18.704000000000001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>25</v>
       </c>
+      <c r="B30" s="1">
+        <v>18.28</v>
+      </c>
+      <c r="C30" s="1">
+        <v>4752</v>
+      </c>
       <c r="D30" s="1">
-        <v>34180</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+        <v>4732</v>
+      </c>
+      <c r="E30" s="3">
+        <v>1.0042</v>
+      </c>
+      <c r="F30" s="1">
+        <v>3852</v>
+      </c>
+      <c r="G30" s="1">
+        <v>11.5197</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>26</v>
       </c>
+      <c r="B31" s="1">
+        <v>20.885100000000001</v>
+      </c>
+      <c r="C31" s="1">
+        <v>53</v>
+      </c>
       <c r="D31" s="1">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+      <c r="E31" s="3">
+        <v>1.5143</v>
+      </c>
+      <c r="F31" s="1">
+        <v>161</v>
+      </c>
+      <c r="G31" s="1">
+        <v>7.9405000000000001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>27</v>
       </c>
+      <c r="B32" s="1">
+        <v>66.037300000000002</v>
+      </c>
+      <c r="C32" s="1">
+        <v>42538</v>
+      </c>
       <c r="D32" s="1">
-        <v>97229</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+        <v>44654</v>
+      </c>
+      <c r="E32" s="3">
+        <v>0.9526</v>
+      </c>
+      <c r="F32" s="1">
+        <v>35157</v>
+      </c>
+      <c r="G32" s="1">
+        <v>17.996200000000002</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>28</v>
       </c>
+      <c r="B33" s="1">
+        <v>28.6541</v>
+      </c>
+      <c r="C33" s="1">
+        <v>161283</v>
+      </c>
       <c r="D33" s="1">
-        <v>215924</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+        <v>178426</v>
+      </c>
+      <c r="E33" s="3">
+        <v>0.90390000000000004</v>
+      </c>
+      <c r="F33" s="1">
+        <v>62024</v>
+      </c>
+      <c r="G33" s="1">
+        <v>21.279599999999999</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>29</v>
       </c>
+      <c r="B34" s="1">
+        <v>468.94499999999999</v>
+      </c>
+      <c r="C34" s="1">
+        <v>342667</v>
+      </c>
       <c r="D34" s="1">
-        <v>130002</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+        <v>389048</v>
+      </c>
+      <c r="E34" s="3">
+        <v>0.88080000000000003</v>
+      </c>
+      <c r="F34" s="1">
+        <v>119855</v>
+      </c>
+      <c r="G34" s="1">
+        <v>431.38</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>30</v>
       </c>
+      <c r="B35" s="1">
+        <v>24.267499999999998</v>
+      </c>
+      <c r="C35" s="1">
+        <v>4897</v>
+      </c>
       <c r="D35" s="1">
-        <v>18327</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+        <v>9537</v>
+      </c>
+      <c r="E35" s="3">
+        <v>0.51349999999999996</v>
+      </c>
+      <c r="F35" s="1">
+        <v>2349</v>
+      </c>
+      <c r="G35" s="1">
+        <v>13.365</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>31</v>
       </c>
+      <c r="B36" s="1">
+        <v>25.654499999999999</v>
+      </c>
+      <c r="C36" s="1">
+        <v>32905</v>
+      </c>
       <c r="D36" s="1">
-        <v>513438</v>
+        <v>34180</v>
+      </c>
+      <c r="E36" s="3">
+        <v>0.9627</v>
+      </c>
+      <c r="F36" s="1">
+        <v>23691</v>
+      </c>
+      <c r="G36" s="1">
+        <v>47.344700000000003</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B37" s="1">
+        <v>1143.56</v>
+      </c>
+      <c r="C37" s="1">
+        <v>1575193</v>
+      </c>
+      <c r="D37" s="1">
+        <v>2521912</v>
+      </c>
+      <c r="E37" s="3">
+        <v>0.62460000000000004</v>
+      </c>
+      <c r="F37" s="1">
+        <v>324454</v>
+      </c>
+      <c r="G37" s="1">
+        <v>992.68600000000004</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B38" s="1">
+        <v>3158.65</v>
+      </c>
+      <c r="C38" s="1">
+        <v>6310425</v>
+      </c>
+      <c r="D38" s="1">
+        <v>9797013</v>
+      </c>
+      <c r="E38" s="3">
+        <v>0.64410000000000001</v>
+      </c>
+      <c r="F38" s="1">
+        <v>1212768</v>
+      </c>
+      <c r="G38" s="1">
+        <v>2620.25</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B39" s="1">
+        <v>1418.29</v>
+      </c>
+      <c r="C39" s="1">
+        <v>1695085</v>
+      </c>
+      <c r="D39" s="1">
+        <v>2587851</v>
+      </c>
+      <c r="E39" s="3">
+        <v>0.65500000000000003</v>
+      </c>
+      <c r="F39" s="1">
+        <v>385840</v>
+      </c>
+      <c r="G39" s="1">
+        <v>453.97899999999998</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B40" s="1">
+        <v>8.3651</v>
+      </c>
+      <c r="C40" s="1">
+        <v>21</v>
+      </c>
+      <c r="D40" s="1">
+        <v>0</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F40" s="1">
+        <v>98</v>
+      </c>
+      <c r="G40" s="1">
+        <v>2.0691000000000002</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B41" s="1">
+        <v>8.3747000000000007</v>
+      </c>
+      <c r="C41" s="1">
+        <v>17</v>
+      </c>
+      <c r="D41" s="1">
+        <v>0</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F41" s="1">
+        <v>98</v>
+      </c>
+      <c r="G41" s="1">
+        <v>8.2189999999999994</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B42" s="1">
+        <v>1461.76</v>
+      </c>
+      <c r="C42" s="1">
+        <v>20692946</v>
+      </c>
+      <c r="D42" s="1">
+        <v>20748246</v>
+      </c>
+      <c r="E42" s="3">
+        <v>0.99729999999999996</v>
+      </c>
+      <c r="F42" s="1">
+        <v>20720371</v>
+      </c>
+      <c r="G42" s="1">
+        <v>775.43</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B43" s="1">
+        <v>4755.68</v>
+      </c>
+      <c r="C43" s="1">
+        <v>74798351</v>
+      </c>
+      <c r="D43" s="1">
+        <v>116596836</v>
+      </c>
+      <c r="E43" s="3">
+        <v>0.64149999999999996</v>
+      </c>
+      <c r="F43" s="1">
+        <v>21047313</v>
+      </c>
+      <c r="G43" s="1">
+        <v>2875.65</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B44" s="1">
+        <v>4257.49</v>
+      </c>
+      <c r="C44" s="1">
+        <v>74230454</v>
+      </c>
+      <c r="D44" s="1">
+        <v>116523008</v>
+      </c>
+      <c r="E44" s="3">
+        <v>0.63700000000000001</v>
+      </c>
+      <c r="F44" s="1">
+        <v>9944576</v>
+      </c>
+      <c r="G44" s="1">
+        <v>2443.19</v>
       </c>
     </row>
   </sheetData>

--- a/test/performance.xlsx
+++ b/test/performance.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\4-study\FDU\suffermore\DataStructure\HuffmanCompress\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26408EDF-FCDB-4DD0-8880-2FE8A3DBA674}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6681E671-7DC4-4BAD-AFFE-E1B8A834A4FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14376" yWindow="2711" windowWidth="17425" windowHeight="8555" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-109" yWindow="351" windowWidth="23452" windowHeight="12827" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="43">
   <si>
     <t>test case</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -175,6 +175,10 @@
   </si>
   <si>
     <t>4.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>配置：AMD Ryzen 5 4600H 16.0 GB NVIDIA GeForce GTX 1650</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -509,13 +513,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K44"/>
+  <dimension ref="A1:H44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="E20" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G39" sqref="G39"/>
+      <selection pane="bottomRight" activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.95" x14ac:dyDescent="0.25"/>
@@ -527,10 +531,10 @@
     <col min="5" max="5" width="16.5546875" style="1" customWidth="1"/>
     <col min="6" max="6" width="30.5546875" style="1" customWidth="1"/>
     <col min="7" max="7" width="24.21875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="8.88671875" style="1"/>
+    <col min="8" max="8" width="55.6640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -552,8 +556,11 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H1" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1.1000000000000001</v>
       </c>
@@ -576,7 +583,7 @@
         <v>544.89</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>1.2</v>
       </c>
@@ -599,7 +606,7 @@
         <v>12.3</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>1.3</v>
       </c>
@@ -622,7 +629,7 @@
         <v>16.941299999999998</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>1.4</v>
       </c>
@@ -645,7 +652,7 @@
         <v>2.3673999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>1.5</v>
       </c>
@@ -668,7 +675,7 @@
         <v>16.009</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>1.6</v>
       </c>
@@ -691,7 +698,7 @@
         <v>59.357999999999997</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>1.7</v>
       </c>
@@ -714,7 +721,7 @@
         <v>41.292099999999998</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>1.8</v>
       </c>
@@ -737,7 +744,7 @@
         <v>20.072399999999998</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>1.9</v>
       </c>
@@ -760,7 +767,7 @@
         <v>468.50799999999998</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>6</v>
       </c>
@@ -783,7 +790,7 @@
         <v>17.846399999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>7</v>
       </c>
@@ -806,7 +813,7 @@
         <v>11.663399999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>8</v>
       </c>
@@ -829,7 +836,7 @@
         <v>17.9651</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>9</v>
       </c>
@@ -852,7 +859,7 @@
         <v>59.264299999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>10</v>
       </c>
@@ -875,7 +882,7 @@
         <v>1.6226</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>11</v>
       </c>
